--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D8FC4-33F4-4044-AADD-3846792166D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD935509-B375-46BB-926B-D68CDC808DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Topic</t>
   </si>
@@ -49,13 +49,118 @@
   </si>
   <si>
     <t>My soution</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>BuyAndSellStock.java</t>
+  </si>
+  <si>
+    <t>CountInversionInArray.java</t>
+  </si>
+  <si>
+    <t>CountOfSubarraySumEqualsK.java</t>
+  </si>
+  <si>
+    <t>Video links</t>
+  </si>
+  <si>
+    <t>Blog links</t>
+  </si>
+  <si>
+    <t>CountOfSubarrayXorEqualToK.java</t>
+  </si>
+  <si>
+    <t>FindDuplicateNumber.java</t>
+  </si>
+  <si>
+    <t>FourSum.java</t>
+  </si>
+  <si>
+    <t>GoodNumberI.java</t>
+  </si>
+  <si>
+    <t>GridUniquePaths.java</t>
+  </si>
+  <si>
+    <t>LongestConsecutiveSequence.java</t>
+  </si>
+  <si>
+    <t>LongestSubarrayWithSumEqualsK.java</t>
+  </si>
+  <si>
+    <t>LongestSubarrayXorEqualToK.java</t>
+  </si>
+  <si>
+    <t>MajorityElementsNby2.java</t>
+  </si>
+  <si>
+    <t>MajorityElementsNby3.java</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveOnes.java</t>
+  </si>
+  <si>
+    <t>MaxSumForConsecutiveElements.java</t>
+  </si>
+  <si>
+    <t>MaxSumForNonConsecutiveElements.java</t>
+  </si>
+  <si>
+    <t>MergeOverlappingSubintervals.java</t>
+  </si>
+  <si>
+    <t>MergeTwoSortedArraysWithoutExtraSpace.java</t>
+  </si>
+  <si>
+    <t>NextPermutation.java</t>
+  </si>
+  <si>
+    <t>PascalTriangle.java</t>
+  </si>
+  <si>
+    <t>PowerOfXtoN.java</t>
+  </si>
+  <si>
+    <t>RemoveDuplicateFromSortedArray.java</t>
+  </si>
+  <si>
+    <t>RepeatAndMissingNumber.java</t>
+  </si>
+  <si>
+    <t>ReversePairs.java</t>
+  </si>
+  <si>
+    <t>RotateMatrix.java</t>
+  </si>
+  <si>
+    <t>SearchInRowAndColumnSortedMatrix.java</t>
+  </si>
+  <si>
+    <t>SetMatrixToZero.java</t>
+  </si>
+  <si>
+    <t>SortZeroOneTwo.java</t>
+  </si>
+  <si>
+    <t>SwapSort.java</t>
+  </si>
+  <si>
+    <t>ThreeNumberSum.java</t>
+  </si>
+  <si>
+    <t>TrappingRainWater.java</t>
+  </si>
+  <si>
+    <t>TwoSum.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +168,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,51 +495,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD935509-B375-46BB-926B-D68CDC808DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA13BF25-7327-43B7-BF37-03A7BEBFDC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Topic</t>
   </si>
@@ -154,6 +154,153 @@
   </si>
   <si>
     <t>TwoSum.java</t>
+  </si>
+  <si>
+    <t>LongestSubarrayWithSumEqualsZero.java</t>
+  </si>
+  <si>
+    <t>Linked list</t>
+  </si>
+  <si>
+    <t>ReverseOfLinkedList.java</t>
+  </si>
+  <si>
+    <t>MiddleOfLinkedList.java</t>
+  </si>
+  <si>
+    <t>MergeTwoSortedList.java</t>
+  </si>
+  <si>
+    <t>RemoveNthNodeFromBackOfList.java</t>
+  </si>
+  <si>
+    <t>AddTwoNumbers.java</t>
+  </si>
+  <si>
+    <t>DeleteNodeInALinkedList.java</t>
+  </si>
+  <si>
+    <t>IntersectionOfTwoLinkedList.java</t>
+  </si>
+  <si>
+    <t>HasCycle.java</t>
+  </si>
+  <si>
+    <t>StartingNodeOfCycle.java</t>
+  </si>
+  <si>
+    <t>ReverseLinkedlistInGroupsOfSizeK.java</t>
+  </si>
+  <si>
+    <t>IsPalindromeOrNot.java</t>
+  </si>
+  <si>
+    <t>FlattenOfALinkedList.java</t>
+  </si>
+  <si>
+    <t>RotateLinkedListToRight.java</t>
+  </si>
+  <si>
+    <t>CloneLinkedListWithRandomPointer.java</t>
+  </si>
+  <si>
+    <t>LRUCache.java</t>
+  </si>
+  <si>
+    <t>LFUCache.java</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>NMeetingsInOneRoom.java</t>
+  </si>
+  <si>
+    <t>MinimumNumberOfPlatformNeeded.java</t>
+  </si>
+  <si>
+    <t>JobSchedulingProblem.java</t>
+  </si>
+  <si>
+    <t>FractionalKnapSack.java</t>
+  </si>
+  <si>
+    <t>MinimumNumberOfCoins.java</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>HeightOfBinaryTree.java</t>
+  </si>
+  <si>
+    <t>SortArray.java</t>
+  </si>
+  <si>
+    <t>SortStack.java</t>
+  </si>
+  <si>
+    <t>DeleteMiddleElementOfStack.java</t>
+  </si>
+  <si>
+    <t>ReverseStack.java</t>
+  </si>
+  <si>
+    <t>KthSymbolInGrammer.java</t>
+  </si>
+  <si>
+    <t>TowerOfHanoi.java</t>
+  </si>
+  <si>
+    <t>GenrateAllBalancedParenthesis.java</t>
+  </si>
+  <si>
+    <t>PrintAllPalindromePartitioning.java</t>
+  </si>
+  <si>
+    <t>GenerateNBitBinaryNumberHavingMore1sInAllPrefixes.java</t>
+  </si>
+  <si>
+    <t>JosephusProblem.java</t>
+  </si>
+  <si>
+    <t>SudokuSolver.java</t>
+  </si>
+  <si>
+    <t>LetterCasePermutation.java</t>
+  </si>
+  <si>
+    <t>PermutationWithSpaces.java</t>
+  </si>
+  <si>
+    <t>PowerSet.java</t>
+  </si>
+  <si>
+    <t>SubsetSum.java</t>
+  </si>
+  <si>
+    <t>CombinationSumWithRepeatedElements.java</t>
+  </si>
+  <si>
+    <t>CombinationSumWithUniqueElements.java</t>
+  </si>
+  <si>
+    <t>PrintAllPermutationsOfStringOrArray.java</t>
+  </si>
+  <si>
+    <t>KthPermutationSequence.java</t>
+  </si>
+  <si>
+    <t>NQueenProblem.java</t>
+  </si>
+  <si>
+    <t>MColoringProblem.java</t>
+  </si>
+  <si>
+    <t>RatInAMaze.java</t>
+  </si>
+  <si>
+    <t>PrintAllWordBreaks.java</t>
   </si>
 </sst>
 </file>
@@ -199,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,14 +354,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,27 +679,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="50.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,170 +731,423 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9"/>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10"/>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA13BF25-7327-43B7-BF37-03A7BEBFDC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45458B3-4619-45D7-8B24-B8175DCB772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Topic</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>PrintAllWordBreaks.java</t>
+  </si>
+  <si>
+    <t>Binary search</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -378,27 +381,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,8 +1138,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45458B3-4619-45D7-8B24-B8175DCB772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C66098-9E37-490F-A5BC-692E14608595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Topic</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Binary search</t>
+  </si>
+  <si>
+    <t>RotateArray.java</t>
   </si>
 </sst>
 </file>
@@ -671,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,402 +748,407 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="F9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="F11" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F63" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
     </row>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C66098-9E37-490F-A5BC-692E14608595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B640A35-5BCF-4F9F-81F1-0D9D76565DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Topic</t>
   </si>
@@ -307,6 +307,75 @@
   </si>
   <si>
     <t>RotateArray.java</t>
+  </si>
+  <si>
+    <t>BinarySearch.java</t>
+  </si>
+  <si>
+    <t>BinarySearchInReverseSortedArray.java</t>
+  </si>
+  <si>
+    <t>OrderNotKnownBinarySearch.java</t>
+  </si>
+  <si>
+    <t>SingleElementInSortedArray.java</t>
+  </si>
+  <si>
+    <t>NoOfTimesSortedArrayRotated.java</t>
+  </si>
+  <si>
+    <t>BinarySearchOnRotatedArray.java</t>
+  </si>
+  <si>
+    <t>FirstAndLastOccuranceAndCount.java</t>
+  </si>
+  <si>
+    <t>SearchingInNearlySortedArray.java</t>
+  </si>
+  <si>
+    <t>FloorOfAnItem.java</t>
+  </si>
+  <si>
+    <t>CeilOfAnItem.java</t>
+  </si>
+  <si>
+    <t>NextAlphabeticalElement.java</t>
+  </si>
+  <si>
+    <t>FindPositionInInfiniteSortedArray.java</t>
+  </si>
+  <si>
+    <t>FirstOccuranceOfOneInInfiteBinaryArray.java</t>
+  </si>
+  <si>
+    <t>MinimumDifferenceElementInASortedArray.java</t>
+  </si>
+  <si>
+    <t>PeakElement.java</t>
+  </si>
+  <si>
+    <t>FindMaximumInBitonicArray.java</t>
+  </si>
+  <si>
+    <t>FindElementInBiotonicArray.java</t>
+  </si>
+  <si>
+    <t>NthRootOfANumber.java</t>
+  </si>
+  <si>
+    <t>MatrixMedian.java</t>
+  </si>
+  <si>
+    <t>MedianOfTwoSortedArray.java</t>
+  </si>
+  <si>
+    <t>KthElementOfTwoSortedArrays</t>
+  </si>
+  <si>
+    <t>MinimumNumberOfPages.java</t>
+  </si>
+  <si>
+    <t>AggresiveCows.java</t>
   </si>
 </sst>
 </file>
@@ -338,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +420,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -384,16 +459,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,19 +786,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" customWidth="1"/>
+    <col min="5" max="5" width="48.109375" customWidth="1"/>
     <col min="6" max="6" width="50.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
@@ -694,40 +806,40 @@
     <col min="10" max="10" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -904,8 +1016,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -990,8 +1102,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1021,8 +1133,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1147,9 +1259,124 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B640A35-5BCF-4F9F-81F1-0D9D76565DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C708B-183C-4ACC-9F02-C4EC3C5607AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Topic</t>
   </si>
@@ -376,6 +377,57 @@
   </si>
   <si>
     <t>AggresiveCows.java</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>MaxHeap.java</t>
+  </si>
+  <si>
+    <t>MinHeap.java</t>
+  </si>
+  <si>
+    <t>KthLargestElement.java</t>
+  </si>
+  <si>
+    <t>KthLowestElement.java</t>
+  </si>
+  <si>
+    <t>KLargestElements.java</t>
+  </si>
+  <si>
+    <t>KSortedArray.java</t>
+  </si>
+  <si>
+    <t>KClosestNumbers.java</t>
+  </si>
+  <si>
+    <t>TopKFrequentNumbers.java</t>
+  </si>
+  <si>
+    <t>FrequencySort.java</t>
+  </si>
+  <si>
+    <t>KClosestPointToOrigin.java</t>
+  </si>
+  <si>
+    <t>ConnectNRopesToMinimizeCost.java</t>
+  </si>
+  <si>
+    <t>SumBetweenK1thSmallesAndK2thSmallest.java</t>
+  </si>
+  <si>
+    <t>MergeNSortedArrays.java</t>
+  </si>
+  <si>
+    <t>MaximumSumCombination.java</t>
+  </si>
+  <si>
+    <t>MedianFromDataStream.java</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -498,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -506,6 +558,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,8 +1433,105 @@
         <v>116</v>
       </c>
     </row>
+    <row r="114" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0039957-8557-4E52-A7F4-D881CA1B83A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="65" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C708B-183C-4ACC-9F02-C4EC3C5607AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADE2BF-D07E-4FF1-87A6-2D6103C5B8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Topic</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>Stack</t>
+  </si>
+  <si>
+    <t>RandomizedSetProblem</t>
   </si>
 </sst>
 </file>
@@ -840,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:XFD131"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,452 +1072,457 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F57" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F64" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F90" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
+    <row r="115" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F115" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
+    <row r="132" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
     </row>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADE2BF-D07E-4FF1-87A6-2D6103C5B8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E2E06B-7C35-485C-BC69-6F1B2002EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
   <si>
     <t>Topic</t>
   </si>
@@ -431,6 +431,99 @@
   </si>
   <si>
     <t>RandomizedSetProblem</t>
+  </si>
+  <si>
+    <t>Bit Manipulations</t>
+  </si>
+  <si>
+    <t>SwapTwoNumbers.java</t>
+  </si>
+  <si>
+    <t>XorOfNnumbers.java</t>
+  </si>
+  <si>
+    <t>XorOfARange.java</t>
+  </si>
+  <si>
+    <t>SetKthBit.java</t>
+  </si>
+  <si>
+    <t>ClearKthBit.java</t>
+  </si>
+  <si>
+    <t>ToggleKthBit.java</t>
+  </si>
+  <si>
+    <t>KthBitSetOrNot.java</t>
+  </si>
+  <si>
+    <t>CountNumberOfBitsToFlipToConvertAtoB.java</t>
+  </si>
+  <si>
+    <t>OddOrEven.java</t>
+  </si>
+  <si>
+    <t>RemoveTheRightMostSetBit.java</t>
+  </si>
+  <si>
+    <t>CountSetBits.java</t>
+  </si>
+  <si>
+    <t>NumberIsPowerOfTwo.java</t>
+  </si>
+  <si>
+    <t>ExtractTheRightMostSetBit.java</t>
+  </si>
+  <si>
+    <t>ExtractTheLeftMostSetBit.java</t>
+  </si>
+  <si>
+    <t>FindTotalSetBitForRangeZeroToTwoPowerN.java</t>
+  </si>
+  <si>
+    <t>CountTotalSetBits.java</t>
+  </si>
+  <si>
+    <t>FindTheNumberOccursOnlyOnce.java</t>
+  </si>
+  <si>
+    <t>FindTwoIntegerThatComeOnceInArray.java</t>
+  </si>
+  <si>
+    <t>XorOfEverySubset.java</t>
+  </si>
+  <si>
+    <t>BPetrAndCombinationLock.java</t>
+  </si>
+  <si>
+    <t>BitSet.java</t>
+  </si>
+  <si>
+    <t>SetTheRightMostUnsetBit.java</t>
+  </si>
+  <si>
+    <t>DivideTwoIntegers.java</t>
+  </si>
+  <si>
+    <t>AdditionWithoutPlusOperator.java</t>
+  </si>
+  <si>
+    <t>MinimumXorInArray.java</t>
+  </si>
+  <si>
+    <t>MaximumXorInArray.java</t>
+  </si>
+  <si>
+    <t>MaximumXorOfTwoNumber.java</t>
+  </si>
+  <si>
+    <t>MaximumXorWithAnElementFromArray.java</t>
+  </si>
+  <si>
+    <t>MinimumXorSumOfTwoArrays.java</t>
+  </si>
+  <si>
+    <t>Math Problems</t>
   </si>
 </sst>
 </file>
@@ -482,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -515,26 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -544,25 +617,24 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,15 +915,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="45.5546875" customWidth="1"/>
@@ -863,666 +935,827 @@
     <col min="10" max="10" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10"/>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11"/>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F54" t="s">
-        <v>59</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62"/>
       <c r="F62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F71" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F73" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F75" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F76" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F77" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F78" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F87" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F91" t="s">
-        <v>94</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F93" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F95" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F116" t="s">
-        <v>118</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F118" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F119" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F120" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F121" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F124" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F146" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F151" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F153" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F154" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F155" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F156" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F157" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F158" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F159" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F164" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F165" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F168" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F169" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F170" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F171" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F172" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F173" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F174" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F175" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F176" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F177" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F179" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F180" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F181" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F182" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="7" t="s">
+    <row r="184" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
         <v>133</v>
       </c>
     </row>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E2E06B-7C35-485C-BC69-6F1B2002EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E5263B-82B0-42BE-AC57-4150C43B5F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>Topic</t>
   </si>
@@ -523,7 +523,46 @@
     <t>MinimumXorSumOfTwoArrays.java</t>
   </si>
   <si>
-    <t>Math Problems</t>
+    <t>SquareRoot.java</t>
+  </si>
+  <si>
+    <t>Prime numbers</t>
+  </si>
+  <si>
+    <t>isPrime.java</t>
+  </si>
+  <si>
+    <t>FindMultiples.java</t>
+  </si>
+  <si>
+    <t>FindThreeDistinctNumbersWhoseMultiplicationEqualToN.java</t>
+  </si>
+  <si>
+    <t>SieveOfEratosthenes.java</t>
+  </si>
+  <si>
+    <t>PrimeCount.java</t>
+  </si>
+  <si>
+    <t>KthPrimeNumber.java</t>
+  </si>
+  <si>
+    <t>CountPrimeFactorsOfHowManyNumbersInRange.java</t>
+  </si>
+  <si>
+    <t>PrimeFactorizationOfGivenNumber.java</t>
+  </si>
+  <si>
+    <t>SegmentedSieve.java</t>
+  </si>
+  <si>
+    <t>NegativeOfNumber.java</t>
+  </si>
+  <si>
+    <t>FindNthMagicNumber.java</t>
+  </si>
+  <si>
+    <t>HowManyBitsRequiredToRepresentOneNumber.java</t>
   </si>
 </sst>
 </file>
@@ -631,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -915,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +967,7 @@
     <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="45.5546875" customWidth="1"/>
     <col min="5" max="5" width="48.109375" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="6" max="6" width="65" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
@@ -974,788 +1013,858 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F32" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F58" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62"/>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63"/>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F65" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F66" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F67" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F68" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F69" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F70" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F71" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F72" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F73" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F75" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F76" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F80" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F87" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F94" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F95" t="s">
-        <v>47</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F97" t="s">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F98" t="s">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F99" t="s">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F100" t="s">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F101" t="s">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F102" t="s">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F103" t="s">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F104" t="s">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F105" t="s">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F106" t="s">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F107" t="s">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+    <row r="112" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F110" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F111" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F112" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F113" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="116" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F118" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F119" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F120" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F121" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F124" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F129" t="s">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F130" t="s">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F131" t="s">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F132" t="s">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F133" t="s">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F134" t="s">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F135" t="s">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F136" t="s">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F137" t="s">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F138" t="s">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F142" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F139" t="s">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F140" t="s">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="142" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F143" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F147" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F144" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F145" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F146" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F147" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F151" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F148" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F149" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F153" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F150" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F154" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F151" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F155" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F152" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F156" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F153" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F157" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F154" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F158" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F155" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F159" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F156" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F157" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F158" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F159" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F160" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F161" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F162" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F163" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F164" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F165" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F166" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F167" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F168" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F169" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F170" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F171" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F172" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F173" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F174" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F175" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F176" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F177" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F178" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F179" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F180" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F181" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F182" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F183" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F184" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F185" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F186" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F187" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
+    <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
         <v>133</v>
       </c>
     </row>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\coding\data-structure-and-algorithms-in-java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekghosh/Desktop/personal-projects/ds-algo-cp-problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E5263B-82B0-42BE-AC57-4150C43B5F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C72FB6-91D6-DB4D-81DC-A4733D2C13D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30180" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -956,25 +956,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="136" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="45.5546875" customWidth="1"/>
-    <col min="5" max="5" width="48.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1006,864 +1006,864 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="6" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F61" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="F66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="F67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F78" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F86" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F87" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F89" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F90" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F93" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F96" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F104" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F106" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F108" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="113" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F114" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F115" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F116" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F118" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F121" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F124" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F125" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F128" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F137" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F139" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F141" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F144" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="146" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F147" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F148" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F149" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F150" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F151" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F152" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F153" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F154" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F155" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F156" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F157" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F158" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F159" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F160" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F161" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F162" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F163" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F165" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F166" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F167" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F168" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F169" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F170" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F173" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F174" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F175" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F176" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F177" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F178" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F179" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F180" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F181" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F182" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F183" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F184" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F185" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F186" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F187" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>133</v>
       </c>
@@ -1880,7 +1880,7 @@
   <sheetViews>
     <sheetView zoomScale="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekghosh/Desktop/personal-projects/ds-algo-cp-problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C72FB6-91D6-DB4D-81DC-A4733D2C13D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC27CC3-DB0D-2749-8F04-C8E543A00D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30180" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>Blog links</t>
   </si>
   <si>
-    <t>CountOfSubarrayXorEqualToK.java</t>
-  </si>
-  <si>
     <t>FindDuplicateNumber.java</t>
   </si>
   <si>
@@ -563,13 +560,16 @@
   </si>
   <si>
     <t>HowManyBitsRequiredToRepresentOneNumber.java</t>
+  </si>
+  <si>
+    <t>ContainerWithMostWater</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +592,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFCB6B"/>
+      <name val="Menlo"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -663,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -674,6 +680,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="136" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="136" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
@@ -1008,227 +1015,227 @@
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="6" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1239,69 +1246,69 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1311,32 +1318,32 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -1346,42 +1353,42 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -1391,481 +1398,481 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F90" t="s">
-        <v>14</v>
+      <c r="F90" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="146" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F148" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F149" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F150" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F151" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F152" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F153" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F154" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F155" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F156" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F158" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F160" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F161" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F162" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F163" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F165" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F166" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F167" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F168" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F169" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F170" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F173" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F176" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F177" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F178" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F180" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F182" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F183" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F184" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F185" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F186" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F187" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/SDE_SHEET.xlsx
+++ b/SDE_SHEET.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhishekghosh/Desktop/personal-projects/ds-algo-cp-problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC27CC3-DB0D-2749-8F04-C8E543A00D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8706D9-100E-0A46-AD8A-65E066B88B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30180" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Topic</t>
   </si>
@@ -55,108 +55,12 @@
     <t>Array</t>
   </si>
   <si>
-    <t>BuyAndSellStock.java</t>
-  </si>
-  <si>
-    <t>CountInversionInArray.java</t>
-  </si>
-  <si>
-    <t>CountOfSubarraySumEqualsK.java</t>
-  </si>
-  <si>
     <t>Video links</t>
   </si>
   <si>
     <t>Blog links</t>
   </si>
   <si>
-    <t>FindDuplicateNumber.java</t>
-  </si>
-  <si>
-    <t>FourSum.java</t>
-  </si>
-  <si>
-    <t>GoodNumberI.java</t>
-  </si>
-  <si>
-    <t>GridUniquePaths.java</t>
-  </si>
-  <si>
-    <t>LongestConsecutiveSequence.java</t>
-  </si>
-  <si>
-    <t>LongestSubarrayWithSumEqualsK.java</t>
-  </si>
-  <si>
-    <t>LongestSubarrayXorEqualToK.java</t>
-  </si>
-  <si>
-    <t>MajorityElementsNby2.java</t>
-  </si>
-  <si>
-    <t>MajorityElementsNby3.java</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveOnes.java</t>
-  </si>
-  <si>
-    <t>MaxSumForConsecutiveElements.java</t>
-  </si>
-  <si>
-    <t>MaxSumForNonConsecutiveElements.java</t>
-  </si>
-  <si>
-    <t>MergeOverlappingSubintervals.java</t>
-  </si>
-  <si>
-    <t>MergeTwoSortedArraysWithoutExtraSpace.java</t>
-  </si>
-  <si>
-    <t>NextPermutation.java</t>
-  </si>
-  <si>
-    <t>PascalTriangle.java</t>
-  </si>
-  <si>
-    <t>PowerOfXtoN.java</t>
-  </si>
-  <si>
-    <t>RemoveDuplicateFromSortedArray.java</t>
-  </si>
-  <si>
-    <t>RepeatAndMissingNumber.java</t>
-  </si>
-  <si>
-    <t>ReversePairs.java</t>
-  </si>
-  <si>
-    <t>RotateMatrix.java</t>
-  </si>
-  <si>
-    <t>SearchInRowAndColumnSortedMatrix.java</t>
-  </si>
-  <si>
-    <t>SetMatrixToZero.java</t>
-  </si>
-  <si>
-    <t>SortZeroOneTwo.java</t>
-  </si>
-  <si>
-    <t>SwapSort.java</t>
-  </si>
-  <si>
-    <t>ThreeNumberSum.java</t>
-  </si>
-  <si>
-    <t>TrappingRainWater.java</t>
-  </si>
-  <si>
-    <t>TwoSum.java</t>
-  </si>
-  <si>
-    <t>LongestSubarrayWithSumEqualsZero.java</t>
-  </si>
-  <si>
     <t>Linked list</t>
   </si>
   <si>
@@ -304,78 +208,6 @@
     <t>Binary search</t>
   </si>
   <si>
-    <t>RotateArray.java</t>
-  </si>
-  <si>
-    <t>BinarySearch.java</t>
-  </si>
-  <si>
-    <t>BinarySearchInReverseSortedArray.java</t>
-  </si>
-  <si>
-    <t>OrderNotKnownBinarySearch.java</t>
-  </si>
-  <si>
-    <t>SingleElementInSortedArray.java</t>
-  </si>
-  <si>
-    <t>NoOfTimesSortedArrayRotated.java</t>
-  </si>
-  <si>
-    <t>BinarySearchOnRotatedArray.java</t>
-  </si>
-  <si>
-    <t>FirstAndLastOccuranceAndCount.java</t>
-  </si>
-  <si>
-    <t>SearchingInNearlySortedArray.java</t>
-  </si>
-  <si>
-    <t>FloorOfAnItem.java</t>
-  </si>
-  <si>
-    <t>CeilOfAnItem.java</t>
-  </si>
-  <si>
-    <t>NextAlphabeticalElement.java</t>
-  </si>
-  <si>
-    <t>FindPositionInInfiniteSortedArray.java</t>
-  </si>
-  <si>
-    <t>FirstOccuranceOfOneInInfiteBinaryArray.java</t>
-  </si>
-  <si>
-    <t>MinimumDifferenceElementInASortedArray.java</t>
-  </si>
-  <si>
-    <t>PeakElement.java</t>
-  </si>
-  <si>
-    <t>FindMaximumInBitonicArray.java</t>
-  </si>
-  <si>
-    <t>FindElementInBiotonicArray.java</t>
-  </si>
-  <si>
-    <t>NthRootOfANumber.java</t>
-  </si>
-  <si>
-    <t>MatrixMedian.java</t>
-  </si>
-  <si>
-    <t>MedianOfTwoSortedArray.java</t>
-  </si>
-  <si>
-    <t>KthElementOfTwoSortedArrays</t>
-  </si>
-  <si>
-    <t>MinimumNumberOfPages.java</t>
-  </si>
-  <si>
-    <t>AggresiveCows.java</t>
-  </si>
-  <si>
     <t>Heaps</t>
   </si>
   <si>
@@ -427,142 +259,10 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>RandomizedSetProblem</t>
-  </si>
-  <si>
     <t>Bit Manipulations</t>
   </si>
   <si>
-    <t>SwapTwoNumbers.java</t>
-  </si>
-  <si>
-    <t>XorOfNnumbers.java</t>
-  </si>
-  <si>
-    <t>XorOfARange.java</t>
-  </si>
-  <si>
-    <t>SetKthBit.java</t>
-  </si>
-  <si>
-    <t>ClearKthBit.java</t>
-  </si>
-  <si>
-    <t>ToggleKthBit.java</t>
-  </si>
-  <si>
-    <t>KthBitSetOrNot.java</t>
-  </si>
-  <si>
-    <t>CountNumberOfBitsToFlipToConvertAtoB.java</t>
-  </si>
-  <si>
-    <t>OddOrEven.java</t>
-  </si>
-  <si>
-    <t>RemoveTheRightMostSetBit.java</t>
-  </si>
-  <si>
-    <t>CountSetBits.java</t>
-  </si>
-  <si>
-    <t>NumberIsPowerOfTwo.java</t>
-  </si>
-  <si>
-    <t>ExtractTheRightMostSetBit.java</t>
-  </si>
-  <si>
-    <t>ExtractTheLeftMostSetBit.java</t>
-  </si>
-  <si>
-    <t>FindTotalSetBitForRangeZeroToTwoPowerN.java</t>
-  </si>
-  <si>
-    <t>CountTotalSetBits.java</t>
-  </si>
-  <si>
-    <t>FindTheNumberOccursOnlyOnce.java</t>
-  </si>
-  <si>
-    <t>FindTwoIntegerThatComeOnceInArray.java</t>
-  </si>
-  <si>
-    <t>XorOfEverySubset.java</t>
-  </si>
-  <si>
-    <t>BPetrAndCombinationLock.java</t>
-  </si>
-  <si>
-    <t>BitSet.java</t>
-  </si>
-  <si>
-    <t>SetTheRightMostUnsetBit.java</t>
-  </si>
-  <si>
-    <t>DivideTwoIntegers.java</t>
-  </si>
-  <si>
-    <t>AdditionWithoutPlusOperator.java</t>
-  </si>
-  <si>
-    <t>MinimumXorInArray.java</t>
-  </si>
-  <si>
-    <t>MaximumXorInArray.java</t>
-  </si>
-  <si>
-    <t>MaximumXorOfTwoNumber.java</t>
-  </si>
-  <si>
-    <t>MaximumXorWithAnElementFromArray.java</t>
-  </si>
-  <si>
-    <t>MinimumXorSumOfTwoArrays.java</t>
-  </si>
-  <si>
-    <t>SquareRoot.java</t>
-  </si>
-  <si>
     <t>Prime numbers</t>
-  </si>
-  <si>
-    <t>isPrime.java</t>
-  </si>
-  <si>
-    <t>FindMultiples.java</t>
-  </si>
-  <si>
-    <t>FindThreeDistinctNumbersWhoseMultiplicationEqualToN.java</t>
-  </si>
-  <si>
-    <t>SieveOfEratosthenes.java</t>
-  </si>
-  <si>
-    <t>PrimeCount.java</t>
-  </si>
-  <si>
-    <t>KthPrimeNumber.java</t>
-  </si>
-  <si>
-    <t>CountPrimeFactorsOfHowManyNumbersInRange.java</t>
-  </si>
-  <si>
-    <t>PrimeFactorizationOfGivenNumber.java</t>
-  </si>
-  <si>
-    <t>SegmentedSieve.java</t>
-  </si>
-  <si>
-    <t>NegativeOfNumber.java</t>
-  </si>
-  <si>
-    <t>FindNthMagicNumber.java</t>
-  </si>
-  <si>
-    <t>HowManyBitsRequiredToRepresentOneNumber.java</t>
-  </si>
-  <si>
-    <t>ContainerWithMostWater</t>
   </si>
 </sst>
 </file>
@@ -963,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="136" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1007,872 +707,370 @@
         <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="6" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:1" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66"/>
-      <c r="F66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="F67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F71" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F78" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F81" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F89" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F90" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F93" t="s">
-        <v>133</v>
-      </c>
+      <c r="F90" s="10"/>
     </row>
     <row r="94" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F96" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F98" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F99" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F100" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F102" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F103" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F104" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F105" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F106" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F107" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F108" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="6:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F114" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F115" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F116" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F118" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F121" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F124" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F125" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F128" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F134" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F136" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F137" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F138" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F139" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F140" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F141" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F142" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F144" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:1" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F147" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F148" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F149" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F150" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F151" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F152" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F153" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F154" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F155" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F156" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F157" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F158" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F159" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F160" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F161" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F162" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F163" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F165" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F166" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F167" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F168" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F169" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F170" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F173" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F174" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F175" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F176" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F177" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F178" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F179" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F180" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F181" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F182" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F183" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F184" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F185" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F186" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F187" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
